--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_201.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.425</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.135632183908046</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.158117, 14.983242)]</t>
+          <t>[('0:00:07.360000', '0:00:16.520000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.315</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['E:7', 'A', 'A', 'F#:7', 'B:7', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[['G:7', 'C', 'C/7', 'A:7', 'D:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:00:24.631133', '0:00:36.902879')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.851927', '0:00:24.845034')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1522988505747127</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.421428, 38.307687)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(63.629047, 74.101247)]</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09250474383301707</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326)]</t>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:09.740000', '0:00:35.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:43.120000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.75</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(101.06, 102.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(72.5, 93.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
